--- a/Integration .xlsx
+++ b/Integration .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAD4BA4-E680-47C0-8D49-18720DC4EDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E834FB-C9DD-47C3-9C30-202EAD90FAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Not Needed</t>
+  </si>
+  <si>
+    <t>Not Proper</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1110,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1176,10 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/Integration .xlsx
+++ b/Integration .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E834FB-C9DD-47C3-9C30-202EAD90FAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A4B1C-C678-4BEF-B627-6B66D9946A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
   </si>
   <si>
     <t>Not Needed</t>
@@ -774,7 +771,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1066,10 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
         <v>108</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
@@ -1110,7 +1107,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,10 +1173,10 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
